--- a/com-xquant-xpacs/src/main/resources/template/investIncomeTemplate.xlsx
+++ b/com-xquant-xpacs/src/main/resources/template/investIncomeTemplate.xlsx
@@ -518,19 +518,43 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -544,30 +568,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -937,7 +937,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J1"/>
@@ -963,31 +963,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:17" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
@@ -1003,49 +1003,49 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:17" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22" t="s">
+      <c r="H4" s="28"/>
+      <c r="I4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="22" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="22" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="23" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1082,9 +1082,9 @@
       <c r="N5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="26"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
@@ -1151,402 +1151,306 @@
       <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="10" t="s">
+    </row>
+    <row r="12" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+    </row>
+    <row r="13" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+    </row>
+    <row r="14" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+    </row>
+    <row r="16" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+    </row>
+    <row r="17" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+    </row>
+    <row r="18" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
+    </row>
+    <row r="19" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+    </row>
+    <row r="21" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
+    </row>
+    <row r="22" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="10"/>
+    </row>
+    <row r="23" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+    </row>
+    <row r="24" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
+    </row>
+    <row r="25" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="10"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="10" t="s">
+    <row r="36" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="10"/>
+    </row>
+    <row r="37" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="10"/>
+    </row>
+    <row r="38" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="10"/>
+    </row>
+    <row r="39" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="10"/>
+    </row>
+    <row r="40" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="10"/>
+    </row>
+    <row r="41" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="10"/>
+    </row>
+    <row r="42" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="10"/>
+    </row>
+    <row r="43" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="10"/>
+    </row>
+    <row r="44" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="10"/>
+    </row>
+    <row r="45" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="10"/>
+    </row>
+    <row r="46" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="10"/>
+    </row>
+    <row r="47" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="10"/>
+    </row>
+    <row r="48" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="10"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="10" t="s">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="10" t="s">
+      <c r="H59" s="2"/>
+      <c r="I59" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
@@ -1584,20 +1488,146 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="K4:L4"/>
@@ -1605,12 +1635,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
